--- a/referencia/campos.xlsx
+++ b/referencia/campos.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\prj_Proparts_conexao_nfe\SispartsConexao\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\prj_Proparts_conexao_nfe\referencia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4204A235-A17F-4F17-9F1C-00F2847CD553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{314590B2-F662-4162-A950-29292DF04051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E2739BB3-60FE-4CCF-88BB-EB118DB5E762}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{E2739BB3-60FE-4CCF-88BB-EB118DB5E762}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Relacao_NatOp_x_ComprasItens" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="92">
   <si>
     <t>NomeTabela</t>
   </si>
@@ -277,6 +278,39 @@
   </si>
   <si>
     <t>[tblDadosConexaoNFeCTe].[ID_Empresa]</t>
+  </si>
+  <si>
+    <t>tabela_origem</t>
+  </si>
+  <si>
+    <t>campo_origem</t>
+  </si>
+  <si>
+    <t>tabela_destino</t>
+  </si>
+  <si>
+    <t>campo_destino</t>
+  </si>
+  <si>
+    <t>tmpNatOp</t>
+  </si>
+  <si>
+    <t>STICMS_NatOper</t>
+  </si>
+  <si>
+    <t>STIPI_NatOper</t>
+  </si>
+  <si>
+    <t>STPC_NatOper</t>
+  </si>
+  <si>
+    <t>tmpCompraNFItem_BKP</t>
+  </si>
+  <si>
+    <t>STIPI_CompraNFItem</t>
+  </si>
+  <si>
+    <t>???</t>
   </si>
 </sst>
 </file>
@@ -422,6 +456,19 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{88BC3B4D-165F-4DBC-9846-58D613343A08}" name="Table1" displayName="Table1" ref="A1:D4" totalsRowShown="0">
+  <autoFilter ref="A1:D4" xr:uid="{88BC3B4D-165F-4DBC-9846-58D613343A08}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{8D886149-5A90-4B3A-8D82-C22028675E00}" name="tabela_origem"/>
+    <tableColumn id="2" xr3:uid="{9B10D64C-63B5-45E5-AB9F-04C83B8BDDF5}" name="campo_origem"/>
+    <tableColumn id="3" xr3:uid="{0267C4A5-1EEA-4E99-8299-8767BA703D20}" name="tabela_destino"/>
+    <tableColumn id="4" xr3:uid="{2BD9131B-53B5-438C-8051-BF6B2F9BC8C2}" name="campo_destino"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -723,7 +770,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B89921E-D8D2-431D-B93E-B05362BD036F}">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E31" sqref="E31"/>
     </sheetView>
@@ -1484,4 +1531,85 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5CDE505-8CA8-473A-8FD1-90BFF0F5B911}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>